--- a/dataanalysis/data/predictions/1000/09220938_0940.xlsx
+++ b/dataanalysis/data/predictions/1000/09220938_0940.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="119">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-22</t>
   </si>
   <si>
@@ -368,9 +371,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -728,13 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,19 +837,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.08</v>
@@ -867,7 +870,7 @@
         <v>35967.36</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -909,10 +912,25 @@
         <v>-0.03</v>
       </c>
       <c r="X2" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y2">
+        <v>2.23</v>
+      </c>
+      <c r="Z2">
+        <v>66.98</v>
+      </c>
+      <c r="AA2">
+        <v>6.4</v>
       </c>
       <c r="AC2" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -920,22 +938,25 @@
       <c r="AG2">
         <v>5.990008354187012</v>
       </c>
-      <c r="AH2" t="s">
-        <v>118</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300043</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-1.14</v>
@@ -953,7 +974,7 @@
         <v>8263.809999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -995,10 +1016,25 @@
         <v>-0.05</v>
       </c>
       <c r="X3" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y3">
+        <v>-2.46</v>
+      </c>
+      <c r="Z3">
+        <v>6.95</v>
+      </c>
+      <c r="AA3">
+        <v>0.58</v>
       </c>
       <c r="AC3" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1006,22 +1042,25 @@
       <c r="AG3">
         <v>9.32892894744873</v>
       </c>
-      <c r="AH3" t="s">
-        <v>118</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1.69</v>
@@ -1039,7 +1078,7 @@
         <v>15795.46</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4">
         <v>18</v>
@@ -1081,10 +1120,25 @@
         <v>0.01</v>
       </c>
       <c r="X4" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y4">
+        <v>-1.45</v>
+      </c>
+      <c r="Z4">
+        <v>81.2</v>
+      </c>
+      <c r="AA4">
+        <v>-1.05</v>
       </c>
       <c r="AC4" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1092,22 +1146,25 @@
       <c r="AG4">
         <v>3.85886287689209</v>
       </c>
-      <c r="AH4" t="s">
-        <v>118</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300133</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2.32</v>
@@ -1125,7 +1182,7 @@
         <v>41144.06</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1166,8 +1223,23 @@
       <c r="W5">
         <v>0.08</v>
       </c>
+      <c r="Y5">
+        <v>-1.17</v>
+      </c>
+      <c r="Z5">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>-1.44</v>
+      </c>
       <c r="AC5" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1175,22 +1247,25 @@
       <c r="AG5">
         <v>4.175776958465576</v>
       </c>
-      <c r="AH5" t="s">
-        <v>118</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300331</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-4.68</v>
@@ -1208,7 +1283,7 @@
         <v>43648.45</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6">
         <v>12</v>
@@ -1250,10 +1325,25 @@
         <v>-0.34</v>
       </c>
       <c r="X6" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y6">
+        <v>-3.71</v>
+      </c>
+      <c r="Z6">
+        <v>38.56</v>
+      </c>
+      <c r="AA6">
+        <v>0.23</v>
       </c>
       <c r="AC6" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1261,22 +1351,25 @@
       <c r="AG6">
         <v>3.004303693771362</v>
       </c>
-      <c r="AH6" t="s">
-        <v>118</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300475</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>4.05</v>
@@ -1294,7 +1387,7 @@
         <v>76288.77</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -1336,10 +1429,25 @@
         <v>-0.11</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y7">
+        <v>-4.92</v>
+      </c>
+      <c r="Z7">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>9.07</v>
       </c>
       <c r="AC7" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1347,22 +1455,25 @@
       <c r="AG7">
         <v>6.813253402709961</v>
       </c>
-      <c r="AH7" t="s">
-        <v>118</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300507</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-1.18</v>
@@ -1380,7 +1491,7 @@
         <v>14046.81</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1422,10 +1533,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y8">
+        <v>0.6</v>
+      </c>
+      <c r="Z8">
+        <v>10.28</v>
+      </c>
+      <c r="AA8">
+        <v>1.88</v>
       </c>
       <c r="AC8" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1433,22 +1559,25 @@
       <c r="AG8">
         <v>5.849920749664307</v>
       </c>
-      <c r="AH8" t="s">
-        <v>118</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300521</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1.01</v>
@@ -1466,7 +1595,7 @@
         <v>6131.94</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1508,10 +1637,25 @@
         <v>0.04</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y9">
+        <v>-3.98</v>
+      </c>
+      <c r="Z9">
+        <v>33.81</v>
+      </c>
+      <c r="AA9">
+        <v>5.66</v>
       </c>
       <c r="AC9" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1519,22 +1663,25 @@
       <c r="AG9">
         <v>3.740603923797607</v>
       </c>
-      <c r="AH9" t="s">
-        <v>118</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300539</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>11.88</v>
@@ -1552,7 +1699,7 @@
         <v>47601.93</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10">
         <v>12</v>
@@ -1594,10 +1741,25 @@
         <v>0.51</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y10">
+        <v>1.34</v>
+      </c>
+      <c r="Z10">
+        <v>52.89</v>
+      </c>
+      <c r="AA10">
+        <v>17.01</v>
       </c>
       <c r="AC10" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1605,22 +1767,25 @@
       <c r="AG10">
         <v>4.890347003936768</v>
       </c>
-      <c r="AH10" t="s">
-        <v>118</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300604</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>1.55</v>
@@ -1638,7 +1803,7 @@
         <v>22218.4</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11">
         <v>19</v>
@@ -1680,10 +1845,25 @@
         <v>0.02</v>
       </c>
       <c r="X11" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="Z11">
+        <v>80.27</v>
+      </c>
+      <c r="AA11">
+        <v>23.53</v>
       </c>
       <c r="AC11" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1691,22 +1871,25 @@
       <c r="AG11">
         <v>5.008149147033691</v>
       </c>
-      <c r="AH11" t="s">
-        <v>118</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300620</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>3.72</v>
@@ -1724,7 +1907,7 @@
         <v>113840.76</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -1766,10 +1949,25 @@
         <v>-0.05</v>
       </c>
       <c r="X12" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y12">
+        <v>-1.85</v>
+      </c>
+      <c r="Z12">
+        <v>140.6</v>
+      </c>
+      <c r="AA12">
+        <v>8.15</v>
       </c>
       <c r="AC12" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1777,22 +1975,25 @@
       <c r="AG12">
         <v>8.625436782836914</v>
       </c>
-      <c r="AH12" t="s">
-        <v>118</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300680</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0.43</v>
@@ -1810,7 +2011,7 @@
         <v>11856.08</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -1852,10 +2053,25 @@
         <v>-0.06</v>
       </c>
       <c r="X13" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y13">
+        <v>6.93</v>
+      </c>
+      <c r="Z13">
+        <v>64.2</v>
+      </c>
+      <c r="AA13">
+        <v>6.88</v>
       </c>
       <c r="AC13" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1863,22 +2079,25 @@
       <c r="AG13">
         <v>4.537670135498047</v>
       </c>
-      <c r="AH13" t="s">
-        <v>118</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300684</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>2.62</v>
@@ -1896,7 +2115,7 @@
         <v>20126.98</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -1938,10 +2157,25 @@
         <v>0.18</v>
       </c>
       <c r="X14" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y14">
+        <v>-4.84</v>
+      </c>
+      <c r="Z14">
+        <v>45.5</v>
+      </c>
+      <c r="AA14">
+        <v>2.04</v>
       </c>
       <c r="AC14" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1949,22 +2183,25 @@
       <c r="AG14">
         <v>1.587611794471741</v>
       </c>
-      <c r="AH14" t="s">
-        <v>118</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300814</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.35</v>
@@ -1982,7 +2219,7 @@
         <v>10310.62</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2024,10 +2261,25 @@
         <v>-0.03</v>
       </c>
       <c r="X15" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="Y15">
+        <v>-0.67</v>
+      </c>
+      <c r="Z15">
+        <v>58.5</v>
+      </c>
+      <c r="AA15">
+        <v>14.04</v>
       </c>
       <c r="AC15" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2035,22 +2287,25 @@
       <c r="AG15">
         <v>3.040945768356323</v>
       </c>
-      <c r="AH15" t="s">
-        <v>118</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300843</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>4.13</v>
@@ -2068,7 +2323,7 @@
         <v>14861.34</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2110,10 +2365,25 @@
         <v>0.16</v>
       </c>
       <c r="X16" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y16">
+        <v>-6.78</v>
+      </c>
+      <c r="Z16">
+        <v>61.98</v>
+      </c>
+      <c r="AA16">
+        <v>2.94</v>
       </c>
       <c r="AC16" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2121,22 +2391,25 @@
       <c r="AG16">
         <v>2.46684741973877</v>
       </c>
-      <c r="AH16" t="s">
-        <v>118</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300857</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>5.8</v>
@@ -2154,7 +2427,7 @@
         <v>88689.67999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17">
         <v>22</v>
@@ -2196,10 +2469,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X17" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y17">
+        <v>-3.46</v>
+      </c>
+      <c r="Z17">
+        <v>179.59</v>
+      </c>
+      <c r="AA17">
+        <v>3.86</v>
       </c>
       <c r="AC17" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2207,22 +2495,25 @@
       <c r="AG17">
         <v>-25.19012069702148</v>
       </c>
-      <c r="AH17" t="s">
-        <v>118</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300859</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.95</v>
@@ -2240,7 +2531,7 @@
         <v>28959.6</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -2282,10 +2573,25 @@
         <v>0.05</v>
       </c>
       <c r="X18" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y18">
+        <v>-7.81</v>
+      </c>
+      <c r="Z18">
+        <v>54.5</v>
+      </c>
+      <c r="AA18">
+        <v>-1.46</v>
       </c>
       <c r="AC18" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2293,22 +2599,25 @@
       <c r="AG18">
         <v>6.599978446960449</v>
       </c>
-      <c r="AH18" t="s">
-        <v>118</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300959</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>2.4</v>
@@ -2326,7 +2635,7 @@
         <v>22747.87</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2368,10 +2677,25 @@
         <v>0.29</v>
       </c>
       <c r="X19" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y19">
+        <v>-0.75</v>
+      </c>
+      <c r="Z19">
+        <v>82.19</v>
+      </c>
+      <c r="AA19">
+        <v>11.37</v>
       </c>
       <c r="AC19" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2379,22 +2703,25 @@
       <c r="AG19">
         <v>1.18777871131897</v>
       </c>
-      <c r="AH19" t="s">
-        <v>118</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300969</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0.97</v>
@@ -2412,7 +2739,7 @@
         <v>5841.99</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2454,10 +2781,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X20" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y20">
+        <v>15.26</v>
+      </c>
+      <c r="Z20">
+        <v>143.7</v>
+      </c>
+      <c r="AA20">
+        <v>23.76</v>
       </c>
       <c r="AC20" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2465,22 +2807,25 @@
       <c r="AG20">
         <v>3.500993728637695</v>
       </c>
-      <c r="AH20" t="s">
-        <v>118</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300984</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.59</v>
@@ -2498,7 +2843,7 @@
         <v>5377.78</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2540,10 +2885,25 @@
         <v>-0.03</v>
       </c>
       <c r="X21" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y21">
+        <v>-1.48</v>
+      </c>
+      <c r="Z21">
+        <v>78.72</v>
+      </c>
+      <c r="AA21">
+        <v>4.44</v>
       </c>
       <c r="AC21" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2551,22 +2911,25 @@
       <c r="AG21">
         <v>3.302166938781738</v>
       </c>
-      <c r="AH21" t="s">
-        <v>118</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>301008</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0.91</v>
@@ -2584,7 +2947,7 @@
         <v>17645.89</v>
       </c>
       <c r="J22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2626,10 +2989,25 @@
         <v>0.17</v>
       </c>
       <c r="X22" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y22">
+        <v>8.16</v>
+      </c>
+      <c r="Z22">
+        <v>55.05</v>
+      </c>
+      <c r="AA22">
+        <v>26.87</v>
       </c>
       <c r="AC22" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2637,22 +3015,25 @@
       <c r="AG22">
         <v>2.449889898300171</v>
       </c>
-      <c r="AH22" t="s">
-        <v>118</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301013</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>4.89</v>
@@ -2670,7 +3051,7 @@
         <v>72986.98</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2712,10 +3093,25 @@
         <v>-0.12</v>
       </c>
       <c r="X23" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y23">
+        <v>-2.89</v>
+      </c>
+      <c r="Z23">
+        <v>30.88</v>
+      </c>
+      <c r="AA23">
+        <v>10.64</v>
       </c>
       <c r="AC23" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2723,22 +3119,25 @@
       <c r="AG23">
         <v>7.336585521697998</v>
       </c>
-      <c r="AH23" t="s">
-        <v>118</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301018</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>5.49</v>
@@ -2756,7 +3155,7 @@
         <v>16606.22</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2798,10 +3197,25 @@
         <v>0.11</v>
       </c>
       <c r="X24" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y24">
+        <v>-5.3</v>
+      </c>
+      <c r="Z24">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AA24">
+        <v>4.54</v>
       </c>
       <c r="AC24" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2809,22 +3223,25 @@
       <c r="AG24">
         <v>4.948585987091064</v>
       </c>
-      <c r="AH24" t="s">
-        <v>118</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301307</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>1.9</v>
@@ -2842,7 +3259,7 @@
         <v>10701.95</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K25">
         <v>9</v>
@@ -2884,10 +3301,25 @@
         <v>0.03</v>
       </c>
       <c r="X25" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y25">
+        <v>0.28</v>
+      </c>
+      <c r="Z25">
+        <v>41.86</v>
+      </c>
+      <c r="AA25">
+        <v>2.6</v>
       </c>
       <c r="AC25" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2895,22 +3327,25 @@
       <c r="AG25">
         <v>4.600430488586426</v>
       </c>
-      <c r="AH25" t="s">
-        <v>118</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301308</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>10.21</v>
@@ -2928,7 +3363,7 @@
         <v>115922.87</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2970,10 +3405,25 @@
         <v>0.22</v>
       </c>
       <c r="X26" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y26">
+        <v>2.56</v>
+      </c>
+      <c r="Z26">
+        <v>144.67</v>
+      </c>
+      <c r="AA26">
+        <v>2.6</v>
       </c>
       <c r="AC26" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2981,22 +3431,25 @@
       <c r="AG26">
         <v>-18.04464912414551</v>
       </c>
-      <c r="AH26" t="s">
-        <v>118</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301413</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1.27</v>
@@ -3014,7 +3467,7 @@
         <v>12576.78</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27">
         <v>22</v>
@@ -3056,10 +3509,25 @@
         <v>-0.16</v>
       </c>
       <c r="X27" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y27">
+        <v>-2.85</v>
+      </c>
+      <c r="Z27">
+        <v>177.5</v>
+      </c>
+      <c r="AA27">
+        <v>2.49</v>
       </c>
       <c r="AC27" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3067,22 +3535,25 @@
       <c r="AG27">
         <v>0.9290072321891785</v>
       </c>
-      <c r="AH27" t="s">
-        <v>118</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301488</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>1.49</v>
@@ -3100,7 +3571,7 @@
         <v>22229.84</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28">
         <v>19</v>
@@ -3142,10 +3613,25 @@
         <v>0.29</v>
       </c>
       <c r="X28" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y28">
+        <v>4.38</v>
+      </c>
+      <c r="Z28">
+        <v>194.52</v>
+      </c>
+      <c r="AA28">
+        <v>4.12</v>
       </c>
       <c r="AC28" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3153,22 +3639,25 @@
       <c r="AG28">
         <v>4.710458755493164</v>
       </c>
-      <c r="AH28" t="s">
-        <v>118</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301550</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>3.42</v>
@@ -3186,7 +3675,7 @@
         <v>12579.58</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3228,10 +3717,25 @@
         <v>0.16</v>
       </c>
       <c r="X29" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y29">
+        <v>1.49</v>
+      </c>
+      <c r="Z29">
+        <v>135.5</v>
+      </c>
+      <c r="AA29">
+        <v>8.369999999999999</v>
       </c>
       <c r="AC29" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3239,22 +3743,25 @@
       <c r="AG29">
         <v>4.701122283935547</v>
       </c>
-      <c r="AH29" t="s">
-        <v>118</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688028</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>13.5</v>
@@ -3272,7 +3779,7 @@
         <v>23010.76</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30">
         <v>11</v>
@@ -3314,10 +3821,25 @@
         <v>0.18</v>
       </c>
       <c r="X30" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y30">
+        <v>-3.37</v>
+      </c>
+      <c r="Z30">
+        <v>51.83</v>
+      </c>
+      <c r="AA30">
+        <v>1.93</v>
       </c>
       <c r="AC30" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3325,22 +3847,25 @@
       <c r="AG30">
         <v>22.43539428710938</v>
       </c>
-      <c r="AH30" t="s">
-        <v>118</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688041</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>2.14</v>
@@ -3358,7 +3883,7 @@
         <v>169880.09</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3400,10 +3925,25 @@
         <v>-0.02</v>
       </c>
       <c r="X31" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y31">
+        <v>-2.51</v>
+      </c>
+      <c r="Z31">
+        <v>264.88</v>
+      </c>
+      <c r="AA31">
+        <v>9.91</v>
       </c>
       <c r="AC31" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3411,22 +3951,25 @@
       <c r="AG31">
         <v>47.61050796508789</v>
       </c>
-      <c r="AH31" t="s">
-        <v>118</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688135</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>2.06</v>
@@ -3444,7 +3987,7 @@
         <v>13233.18</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>15</v>
@@ -3486,10 +4029,25 @@
         <v>-0.05</v>
       </c>
       <c r="X32" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y32">
+        <v>8.07</v>
+      </c>
+      <c r="Z32">
+        <v>38.9</v>
+      </c>
+      <c r="AA32">
+        <v>13.78</v>
       </c>
       <c r="AC32" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3497,22 +4055,25 @@
       <c r="AG32">
         <v>1.586634874343872</v>
       </c>
-      <c r="AH32" t="s">
-        <v>118</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688167</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0.38</v>
@@ -3530,7 +4091,7 @@
         <v>27412.51</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33">
         <v>12</v>
@@ -3572,10 +4133,25 @@
         <v>0.06</v>
       </c>
       <c r="X33" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y33">
+        <v>-0.83</v>
+      </c>
+      <c r="Z33">
+        <v>176.55</v>
+      </c>
+      <c r="AA33">
+        <v>0.01</v>
       </c>
       <c r="AC33" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3583,22 +4159,25 @@
       <c r="AG33">
         <v>2.803834915161133</v>
       </c>
-      <c r="AH33" t="s">
-        <v>118</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688195</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>2.02</v>
@@ -3616,7 +4195,7 @@
         <v>46140.76</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34">
         <v>26</v>
@@ -3658,10 +4237,25 @@
         <v>-0.06</v>
       </c>
       <c r="X34" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y34">
+        <v>0.7</v>
+      </c>
+      <c r="Z34">
+        <v>145.46</v>
+      </c>
+      <c r="AA34">
+        <v>7.9</v>
       </c>
       <c r="AC34" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3669,22 +4263,25 @@
       <c r="AG34">
         <v>12.99148654937744</v>
       </c>
-      <c r="AH34" t="s">
-        <v>118</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688205</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-3.18</v>
@@ -3702,7 +4299,7 @@
         <v>58179.64</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3744,10 +4341,25 @@
         <v>-0.17</v>
       </c>
       <c r="X35" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y35">
+        <v>-10.14</v>
+      </c>
+      <c r="Z35">
+        <v>151.35</v>
+      </c>
+      <c r="AA35">
+        <v>1.5</v>
       </c>
       <c r="AC35" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3755,22 +4367,25 @@
       <c r="AG35">
         <v>0.1382839530706406</v>
       </c>
-      <c r="AH35" t="s">
-        <v>118</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688400</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>2.7</v>
@@ -3788,7 +4403,7 @@
         <v>35317.22</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -3829,8 +4444,23 @@
       <c r="W36">
         <v>-0.01</v>
       </c>
+      <c r="Y36">
+        <v>-2.54</v>
+      </c>
+      <c r="Z36">
+        <v>54.47</v>
+      </c>
+      <c r="AA36">
+        <v>4.55</v>
+      </c>
       <c r="AC36" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3838,22 +4468,25 @@
       <c r="AG36">
         <v>5.061108112335205</v>
       </c>
-      <c r="AH36" t="s">
-        <v>118</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688525</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>5.29</v>
@@ -3871,7 +4504,7 @@
         <v>64955.39</v>
       </c>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3913,10 +4546,25 @@
         <v>0.05</v>
       </c>
       <c r="X37" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y37">
+        <v>3.57</v>
+      </c>
+      <c r="Z37">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="AA37">
+        <v>6.84</v>
       </c>
       <c r="AC37" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3924,22 +4572,25 @@
       <c r="AG37">
         <v>9.302780151367188</v>
       </c>
-      <c r="AH37" t="s">
-        <v>118</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688593</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-5</v>
@@ -3957,7 +4608,7 @@
         <v>12053.68</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -3999,10 +4650,25 @@
         <v>-0.35</v>
       </c>
       <c r="X38" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y38">
+        <v>-0.09</v>
+      </c>
+      <c r="Z38">
+        <v>23.44</v>
+      </c>
+      <c r="AA38">
+        <v>-2.94</v>
       </c>
       <c r="AC38" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4010,22 +4676,25 @@
       <c r="AG38">
         <v>4.175013065338135</v>
       </c>
-      <c r="AH38" t="s">
-        <v>118</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688627</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>1.96</v>
@@ -4043,7 +4712,7 @@
         <v>9269.030000000001</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K39">
         <v>7</v>
@@ -4085,10 +4754,25 @@
         <v>0.01</v>
       </c>
       <c r="X39" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y39">
+        <v>16.97</v>
+      </c>
+      <c r="Z39">
+        <v>183.6</v>
+      </c>
+      <c r="AA39">
+        <v>22.48</v>
       </c>
       <c r="AC39" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4096,22 +4780,25 @@
       <c r="AG39">
         <v>0.07815976440906525</v>
       </c>
-      <c r="AH39" t="s">
-        <v>118</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688629</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.6</v>
@@ -4129,7 +4816,7 @@
         <v>41666.29</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -4171,10 +4858,25 @@
         <v>-0.34</v>
       </c>
       <c r="X40" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y40">
+        <v>-3.62</v>
+      </c>
+      <c r="Z40">
+        <v>108.98</v>
+      </c>
+      <c r="AA40">
+        <v>4.47</v>
       </c>
       <c r="AC40" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4182,22 +4884,25 @@
       <c r="AG40">
         <v>2.906358957290649</v>
       </c>
-      <c r="AH40" t="s">
-        <v>118</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688766</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>4.44</v>
@@ -4215,7 +4920,7 @@
         <v>30505.85</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4257,10 +4962,25 @@
         <v>0.13</v>
       </c>
       <c r="X41" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y41">
+        <v>-2.05</v>
+      </c>
+      <c r="Z41">
+        <v>110.3</v>
+      </c>
+      <c r="AA41">
+        <v>0.11</v>
       </c>
       <c r="AC41" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4268,22 +4988,25 @@
       <c r="AG41">
         <v>6.913976669311523</v>
       </c>
-      <c r="AH41" t="s">
-        <v>118</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688981</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0.67</v>
@@ -4301,7 +5024,7 @@
         <v>197351.95</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K42">
         <v>8</v>
@@ -4343,10 +5066,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X42" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y42">
+        <v>-0.32</v>
+      </c>
+      <c r="Z42">
+        <v>129.33</v>
+      </c>
+      <c r="AA42">
+        <v>5.88</v>
       </c>
       <c r="AC42" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4354,8 +5092,11 @@
       <c r="AG42">
         <v>7.517960548400879</v>
       </c>
-      <c r="AH42" t="s">
-        <v>118</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
